--- a/Notebooks/results/hits_subgroup_effective.xlsx
+++ b/Notebooks/results/hits_subgroup_effective.xlsx
@@ -16,7 +16,7 @@
     <sheet name="SHH+p53" sheetId="7" r:id="rId7"/>
     <sheet name="SHH+p53+score" sheetId="8" r:id="rId8"/>
     <sheet name="all_subgroups" sheetId="9" r:id="rId9"/>
-    <sheet name="all_subgroups+ranks" sheetId="10" r:id="rId10"/>
+    <sheet name="all_subgroups+scores" sheetId="10" r:id="rId10"/>
     <sheet name="effective_drugs" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
